--- a/Auto/CMSBenz/src/test/java/CMSBenz/Data.xlsx
+++ b/Auto/CMSBenz/src/test/java/CMSBenz/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="16830" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="27630" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Keys</t>
   </si>
@@ -102,6 +102,48 @@
   </si>
   <si>
     <t>senthilkumar</t>
+  </si>
+  <si>
+    <t>firstname_reg_pgg</t>
+  </si>
+  <si>
+    <t>lastname_reg_pgg</t>
+  </si>
+  <si>
+    <t>email_reg_pgg</t>
+  </si>
+  <si>
+    <t>employeeno_reg_pgg</t>
+  </si>
+  <si>
+    <t>username_reg_pgg</t>
+  </si>
+  <si>
+    <t>designation_reg_pgg</t>
+  </si>
+  <si>
+    <t>isol123</t>
+  </si>
+  <si>
+    <t>Autotest</t>
+  </si>
+  <si>
+    <t>mobileno_reg_pgg</t>
+  </si>
+  <si>
+    <t>Testingisolve.co.in</t>
+  </si>
+  <si>
+    <t>Mani123</t>
+  </si>
+  <si>
+    <t>Kumar123</t>
+  </si>
+  <si>
+    <t>upload_file_pth</t>
+  </si>
+  <si>
+    <t>D:\boss_man-512.png</t>
   </si>
 </sst>
 </file>
@@ -459,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -573,12 +615,75 @@
         <v>9876541470</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9751155894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2" display="Testing@isolve.co.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
